--- a/biology/Médecine/Sclérose/Sclérose.xlsx
+++ b/biology/Médecine/Sclérose/Sclérose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scl%C3%A9rose</t>
+          <t>Sclérose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une sclérose (du grec ancien σκλήρωσις (sclérosis), durcissement) est un durcissement pathologique d'un organe, d'un tissu ou d'une lésion causé par une formation excessive de collagène ou, dans le cas du système nerveux, d'une démyélinisation.
 Il s'agit d'une lésion élémentaire en pathologie dermatologique. Elle correspond à la rigidification anormale de la peau. Elle peut être localisée ou généralisée à l'ensemble du tégument cutané. La sclérose est souvent secondaire à des processus mécaniques, chimiques, ou physiques. Le caractère primitif de la sclérose de la peau s'observe dans la sclérodermie.
